--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.15/avg_0.004_scores.xlsx
@@ -103,12 +103,12 @@
     <t>support</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -121,13 +121,13 @@
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>hope</t>
@@ -1123,13 +1123,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.7665198237885462</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L19">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>0.9399999999999999</v>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1149,25 +1149,25 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.7317073170731707</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1279,25 +1279,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.6584615384615384</v>
+        <v>0.65</v>
       </c>
       <c r="L25">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="M25">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="N25">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1305,25 +1305,25 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.65</v>
+        <v>0.6328671328671329</v>
       </c>
       <c r="L26">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="M26">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1331,25 +1331,25 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.6328671328671329</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L27">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="M27">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="10:17">
